--- a/Blogs/Project Pro/Ensemble Learning/Ensemble Learning.xlsx
+++ b/Blogs/Project Pro/Ensemble Learning/Ensemble Learning.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8D8AADED-56F8-404F-94AF-DF8549EFAE0A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6D15D778-DC19-442B-A6AE-DA380E832EED}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2010" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -545,6 +545,24 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -572,24 +590,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -895,19 +895,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
+      <c r="A2" s="17"/>
       <c r="B2" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -916,491 +916,491 @@
       <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="10" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="8" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="24" t="s">
+      <c r="A17" s="19"/>
+      <c r="B17" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="8" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="8" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="22" t="s">
+      <c r="A20" s="19"/>
+      <c r="B20" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="8" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="22" t="s">
+      <c r="A21" s="19"/>
+      <c r="B21" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="8" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="22" t="s">
+      <c r="A22" s="19"/>
+      <c r="B22" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="8" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="22" t="s">
+      <c r="A23" s="19"/>
+      <c r="B23" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="8" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="23" t="s">
+      <c r="A24" s="20"/>
+      <c r="B24" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="13" t="s">
         <v>39</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="22" t="s">
+      <c r="A26" s="22"/>
+      <c r="B26" s="13" t="s">
         <v>55</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="22" t="s">
+      <c r="A27" s="22"/>
+      <c r="B27" s="13" t="s">
         <v>42</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="8" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="22" t="s">
+      <c r="A28" s="22"/>
+      <c r="B28" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="22" t="s">
+      <c r="A29" s="22"/>
+      <c r="B29" s="13" t="s">
         <v>48</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="22" t="s">
+      <c r="A30" s="22"/>
+      <c r="B30" s="13" t="s">
         <v>48</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="22" t="s">
+      <c r="A31" s="22"/>
+      <c r="B31" s="13" t="s">
         <v>48</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="23" t="s">
+      <c r="A32" s="23"/>
+      <c r="B32" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="11" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="13" t="s">
         <v>61</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="22" t="s">
+      <c r="A34" s="25"/>
+      <c r="B34" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="8" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="22" t="s">
+      <c r="A35" s="25"/>
+      <c r="B35" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="22" t="s">
+      <c r="A36" s="25"/>
+      <c r="B36" s="13" t="s">
         <v>68</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="8" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="22" t="s">
+      <c r="A37" s="25"/>
+      <c r="B37" s="13" t="s">
         <v>68</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="22" t="s">
+      <c r="A38" s="25"/>
+      <c r="B38" s="13" t="s">
         <v>68</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="8" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="B39" s="22" t="s">
+      <c r="A39" s="25"/>
+      <c r="B39" s="13" t="s">
         <v>68</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="17" t="s">
+      <c r="D39" s="8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-      <c r="B40" s="22" t="s">
+      <c r="A40" s="25"/>
+      <c r="B40" s="13" t="s">
         <v>68</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="D40" s="8" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
-      <c r="B41" s="22" t="s">
+      <c r="A41" s="25"/>
+      <c r="B41" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="8" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-      <c r="B42" s="22" t="s">
+      <c r="A42" s="25"/>
+      <c r="B42" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="D42" s="8" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
-      <c r="B43" s="23" t="s">
+      <c r="A43" s="26"/>
+      <c r="B43" s="14" t="s">
         <v>83</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D43" s="20" t="s">
+      <c r="D43" s="11" t="s">
         <v>82</v>
       </c>
     </row>
